--- a/close-deconnexion-ticket.xlsx
+++ b/close-deconnexion-ticket.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="158">
   <si>
     <t>id</t>
   </si>
@@ -31,34 +31,52 @@
     <t>check</t>
   </si>
   <si>
-    <t>09/03/2024 11:18:57</t>
-  </si>
-  <si>
-    <t>72381841</t>
+    <t>11/03/2024 09:12:48</t>
+  </si>
+  <si>
+    <t>74278376</t>
   </si>
   <si>
     <t>Déconnexion avec perte de synchro</t>
   </si>
   <si>
-    <t>09/03/2024 11:57:31</t>
-  </si>
-  <si>
-    <t>09/03/2024 11:04:38</t>
-  </si>
-  <si>
-    <t>72407661</t>
-  </si>
-  <si>
-    <t>09/03/2024 13:23:07</t>
-  </si>
-  <si>
-    <t>08/03/2024 14:02:21</t>
-  </si>
-  <si>
-    <t>70561965</t>
-  </si>
-  <si>
-    <t>08/03/2024 22:14:56</t>
+    <t>11/03/2024 11:00:58</t>
+  </si>
+  <si>
+    <t>10/03/2024 22:20:24</t>
+  </si>
+  <si>
+    <t>74261814</t>
+  </si>
+  <si>
+    <t>11/03/2024 10:28:07</t>
+  </si>
+  <si>
+    <t>10/03/2024 21:57:56</t>
+  </si>
+  <si>
+    <t>78892206</t>
+  </si>
+  <si>
+    <t>11/03/2024 12:55:30</t>
+  </si>
+  <si>
+    <t>09/03/2024 19:55:12</t>
+  </si>
+  <si>
+    <t>73829190</t>
+  </si>
+  <si>
+    <t>10/03/2024 17:29:53</t>
+  </si>
+  <si>
+    <t>09/03/2024 08:48:12</t>
+  </si>
+  <si>
+    <t>75846968</t>
+  </si>
+  <si>
+    <t>10/03/2024 20:34:08</t>
   </si>
   <si>
     <t>08/03/2024 13:24:44</t>
@@ -70,40 +88,13 @@
     <t>08/03/2024 14:29:33</t>
   </si>
   <si>
-    <t>08/03/2024 10:20:52</t>
-  </si>
-  <si>
-    <t>75485302</t>
-  </si>
-  <si>
-    <t>09/03/2024 08:12:15</t>
-  </si>
-  <si>
-    <t>07/03/2024 19:09:52</t>
-  </si>
-  <si>
-    <t>78262726</t>
-  </si>
-  <si>
-    <t>07/03/2024 20:04:16</t>
-  </si>
-  <si>
-    <t>07/03/2024 16:13:39</t>
-  </si>
-  <si>
-    <t>70628369</t>
-  </si>
-  <si>
-    <t>10/03/2024 03:04:13</t>
-  </si>
-  <si>
-    <t>07/03/2024 14:42:42</t>
-  </si>
-  <si>
-    <t>73258856</t>
-  </si>
-  <si>
-    <t>09/03/2024 16:03:22</t>
+    <t>07/03/2024 15:03:09</t>
+  </si>
+  <si>
+    <t>73560426</t>
+  </si>
+  <si>
+    <t>10/03/2024 19:03:48</t>
   </si>
   <si>
     <t>07/03/2024 12:43:10</t>
@@ -115,15 +106,6 @@
     <t>10/03/2024 08:24:03</t>
   </si>
   <si>
-    <t>07/03/2024 11:34:57</t>
-  </si>
-  <si>
-    <t>73319556</t>
-  </si>
-  <si>
-    <t>09/03/2024 16:11:26</t>
-  </si>
-  <si>
     <t>06/03/2024 19:44:05</t>
   </si>
   <si>
@@ -142,15 +124,6 @@
     <t>09/03/2024 15:45:43</t>
   </si>
   <si>
-    <t>06/03/2024 15:25:07</t>
-  </si>
-  <si>
-    <t>75744937</t>
-  </si>
-  <si>
-    <t>09/03/2024 15:37:10</t>
-  </si>
-  <si>
     <t>06/03/2024 13:06:40</t>
   </si>
   <si>
@@ -214,22 +187,13 @@
     <t>08/03/2024 19:25:08</t>
   </si>
   <si>
-    <t>05/03/2024 15:40:07</t>
-  </si>
-  <si>
-    <t>71505420</t>
-  </si>
-  <si>
-    <t>08/03/2024 19:44:51</t>
-  </si>
-  <si>
-    <t>05/03/2024 13:51:46</t>
-  </si>
-  <si>
-    <t>72483403</t>
-  </si>
-  <si>
-    <t>09/03/2024 07:59:36</t>
+    <t>05/03/2024 15:20:46</t>
+  </si>
+  <si>
+    <t>74831056</t>
+  </si>
+  <si>
+    <t>10/03/2024 22:56:30</t>
   </si>
   <si>
     <t>05/03/2024 12:44:17</t>
@@ -241,24 +205,6 @@
     <t>09/03/2024 20:48:09</t>
   </si>
   <si>
-    <t>05/03/2024 09:33:42</t>
-  </si>
-  <si>
-    <t>73562353</t>
-  </si>
-  <si>
-    <t>07/03/2024 20:15:21</t>
-  </si>
-  <si>
-    <t>04/03/2024 19:27:09</t>
-  </si>
-  <si>
-    <t>73489779</t>
-  </si>
-  <si>
-    <t>07/03/2024 18:37:22</t>
-  </si>
-  <si>
     <t>04/03/2024 16:08:21</t>
   </si>
   <si>
@@ -268,15 +214,6 @@
     <t>09/03/2024 03:29:30</t>
   </si>
   <si>
-    <t>04/03/2024 11:23:57</t>
-  </si>
-  <si>
-    <t>75480261</t>
-  </si>
-  <si>
-    <t>09/03/2024 12:40:45</t>
-  </si>
-  <si>
     <t>04/03/2024 10:41:14</t>
   </si>
   <si>
@@ -292,7 +229,7 @@
     <t>75485286</t>
   </si>
   <si>
-    <t>07/03/2024 18:38:20</t>
+    <t>09/03/2024 08:01:13</t>
   </si>
   <si>
     <t>03/03/2024 16:33:31</t>
@@ -313,24 +250,6 @@
     <t>07/03/2024 18:37:44</t>
   </si>
   <si>
-    <t>02/03/2024 21:30:39</t>
-  </si>
-  <si>
-    <t>71339689</t>
-  </si>
-  <si>
-    <t>05/03/2024 18:21:00</t>
-  </si>
-  <si>
-    <t>02/03/2024 09:01:32</t>
-  </si>
-  <si>
-    <t>75681751</t>
-  </si>
-  <si>
-    <t>07/03/2024 11:08:24</t>
-  </si>
-  <si>
     <t>01/03/2024 14:39:54</t>
   </si>
   <si>
@@ -346,88 +265,16 @@
     <t>71594006</t>
   </si>
   <si>
-    <t>07/03/2024 19:53:49</t>
-  </si>
-  <si>
-    <t>01/03/2024 09:31:46</t>
-  </si>
-  <si>
-    <t>71307847</t>
-  </si>
-  <si>
-    <t>09/03/2024 16:08:08</t>
-  </si>
-  <si>
-    <t>29/02/2024 16:37:13</t>
-  </si>
-  <si>
-    <t>71302348</t>
-  </si>
-  <si>
-    <t>09/03/2024 16:26:27</t>
-  </si>
-  <si>
-    <t>29/02/2024 15:08:04</t>
-  </si>
-  <si>
-    <t>72442778</t>
-  </si>
-  <si>
-    <t>08/03/2024 22:23:09</t>
-  </si>
-  <si>
-    <t>29/02/2024 08:48:43</t>
-  </si>
-  <si>
-    <t>71314767</t>
-  </si>
-  <si>
-    <t>08/03/2024 09:04:41</t>
-  </si>
-  <si>
-    <t>28/02/2024 17:59:39</t>
-  </si>
-  <si>
-    <t>71491035</t>
-  </si>
-  <si>
-    <t>05/03/2024 04:58:11</t>
-  </si>
-  <si>
-    <t>28/02/2024 17:17:13</t>
-  </si>
-  <si>
-    <t>75672141</t>
-  </si>
-  <si>
-    <t>07/03/2024 18:34:23</t>
-  </si>
-  <si>
-    <t>28/02/2024 15:58:14</t>
-  </si>
-  <si>
-    <t>71555120</t>
-  </si>
-  <si>
-    <t>05/03/2024 17:46:41</t>
-  </si>
-  <si>
-    <t>28/02/2024 10:15:42</t>
-  </si>
-  <si>
-    <t>73500735</t>
-  </si>
-  <si>
-    <t>07/03/2024 19:51:42</t>
-  </si>
-  <si>
-    <t>26/02/2024 18:03:13</t>
-  </si>
-  <si>
-    <t>77370278</t>
-  </si>
-  <si>
-    <t>08/03/2024 16:58:53</t>
+    <t>10/03/2024 18:38:27</t>
+  </si>
+  <si>
+    <t>29/02/2024 09:21:20</t>
+  </si>
+  <si>
+    <t>78280587</t>
+  </si>
+  <si>
+    <t>11/03/2024 09:51:53</t>
   </si>
   <si>
     <t>26/02/2024 17:46:34</t>
@@ -439,15 +286,6 @@
     <t>07/03/2024 18:24:12</t>
   </si>
   <si>
-    <t>26/02/2024 15:09:49</t>
-  </si>
-  <si>
-    <t>75740506</t>
-  </si>
-  <si>
-    <t>06/03/2024 06:11:27</t>
-  </si>
-  <si>
     <t>26/02/2024 12:13:31</t>
   </si>
   <si>
@@ -457,15 +295,6 @@
     <t>27/02/2024 07:04:09</t>
   </si>
   <si>
-    <t>26/02/2024 12:01:24</t>
-  </si>
-  <si>
-    <t>72684448</t>
-  </si>
-  <si>
-    <t>09/03/2024 15:53:56</t>
-  </si>
-  <si>
     <t>25/02/2024 13:02:00</t>
   </si>
   <si>
@@ -475,18 +304,6 @@
     <t>01/03/2024 16:14:30</t>
   </si>
   <si>
-    <t>24/02/2024 20:18:05</t>
-  </si>
-  <si>
-    <t>75856366</t>
-  </si>
-  <si>
-    <t>Déconnexion sans perte de synchro</t>
-  </si>
-  <si>
-    <t>08/03/2024 22:54:46</t>
-  </si>
-  <si>
     <t>23/02/2024 19:16:24</t>
   </si>
   <si>
@@ -496,33 +313,6 @@
     <t>07/03/2024 18:38:06</t>
   </si>
   <si>
-    <t>23/02/2024 17:14:18</t>
-  </si>
-  <si>
-    <t>71857158</t>
-  </si>
-  <si>
-    <t>08/03/2024 16:07:15</t>
-  </si>
-  <si>
-    <t>23/02/2024 13:12:03</t>
-  </si>
-  <si>
-    <t>75365947</t>
-  </si>
-  <si>
-    <t>01/03/2024 11:13:50</t>
-  </si>
-  <si>
-    <t>22/02/2024 19:48:02</t>
-  </si>
-  <si>
-    <t>73546382</t>
-  </si>
-  <si>
-    <t>07/03/2024 18:37:54</t>
-  </si>
-  <si>
     <t>22/02/2024 15:54:17</t>
   </si>
   <si>
@@ -568,40 +358,13 @@
     <t>24/02/2024 08:10:04</t>
   </si>
   <si>
-    <t>19/02/2024 20:25:28</t>
-  </si>
-  <si>
-    <t>75323153</t>
-  </si>
-  <si>
-    <t>02/03/2024 19:54:40</t>
-  </si>
-  <si>
-    <t>19/02/2024 14:53:35</t>
-  </si>
-  <si>
-    <t>75880230</t>
-  </si>
-  <si>
-    <t>22/02/2024 22:58:46</t>
-  </si>
-  <si>
     <t>18/02/2024 19:36:51</t>
   </si>
   <si>
     <t>71976406</t>
   </si>
   <si>
-    <t>07/03/2024 20:01:54</t>
-  </si>
-  <si>
-    <t>18/02/2024 12:05:48</t>
-  </si>
-  <si>
-    <t>74434456</t>
-  </si>
-  <si>
-    <t>09/03/2024 12:55:19</t>
+    <t>10/03/2024 18:38:17</t>
   </si>
   <si>
     <t>17/02/2024 22:25:13</t>
@@ -613,24 +376,6 @@
     <t>01/03/2024 05:22:18</t>
   </si>
   <si>
-    <t>14/02/2024 19:20:38</t>
-  </si>
-  <si>
-    <t>71737219</t>
-  </si>
-  <si>
-    <t>25/02/2024 10:02:39</t>
-  </si>
-  <si>
-    <t>13/02/2024 10:54:13</t>
-  </si>
-  <si>
-    <t>74601751</t>
-  </si>
-  <si>
-    <t>22/02/2024 16:19:41</t>
-  </si>
-  <si>
     <t>13/02/2024 10:06:38</t>
   </si>
   <si>
@@ -640,15 +385,6 @@
     <t>08/03/2024 14:52:50</t>
   </si>
   <si>
-    <t>12/02/2024 18:56:34</t>
-  </si>
-  <si>
-    <t>72532642</t>
-  </si>
-  <si>
-    <t>13/02/2024 01:59:34</t>
-  </si>
-  <si>
     <t>10/02/2024 15:36:48</t>
   </si>
   <si>
@@ -664,7 +400,7 @@
     <t>73404100</t>
   </si>
   <si>
-    <t>08/03/2024 14:16:43</t>
+    <t>09/03/2024 19:36:31</t>
   </si>
   <si>
     <t>09/02/2024 15:31:14</t>
@@ -694,15 +430,6 @@
     <t>08/03/2024 10:18:31</t>
   </si>
   <si>
-    <t>06/02/2024 15:38:49</t>
-  </si>
-  <si>
-    <t>73494654</t>
-  </si>
-  <si>
-    <t>01/03/2024 16:09:00</t>
-  </si>
-  <si>
     <t>02/02/2024 13:13:05</t>
   </si>
   <si>
@@ -712,33 +439,6 @@
     <t>02/02/2024 20:59:19</t>
   </si>
   <si>
-    <t>31/01/2024 14:16:38</t>
-  </si>
-  <si>
-    <t>72680485</t>
-  </si>
-  <si>
-    <t>05/02/2024 09:15:10</t>
-  </si>
-  <si>
-    <t>30/01/2024 17:34:56</t>
-  </si>
-  <si>
-    <t>75752191</t>
-  </si>
-  <si>
-    <t>07/03/2024 18:39:28</t>
-  </si>
-  <si>
-    <t>29/01/2024 18:57:16</t>
-  </si>
-  <si>
-    <t>72406134</t>
-  </si>
-  <si>
-    <t>28/02/2024 14:55:49</t>
-  </si>
-  <si>
     <t>05/01/2024 10:59:40</t>
   </si>
   <si>
@@ -748,31 +448,13 @@
     <t>27/02/2024 03:25:23</t>
   </si>
   <si>
-    <t>03/01/2024 20:15:01</t>
-  </si>
-  <si>
-    <t>75332299</t>
-  </si>
-  <si>
-    <t>30/01/2024 12:53:49</t>
-  </si>
-  <si>
     <t>30/12/2023 15:52:36</t>
   </si>
   <si>
     <t>71635714</t>
   </si>
   <si>
-    <t>09/03/2024 18:35:38</t>
-  </si>
-  <si>
-    <t>28/12/2023 14:37:55</t>
-  </si>
-  <si>
-    <t>79352917</t>
-  </si>
-  <si>
-    <t>02/02/2024 18:15:28</t>
+    <t>11/03/2024 08:26:30</t>
   </si>
   <si>
     <t>20/12/2023 17:13:58</t>
@@ -782,15 +464,6 @@
   </si>
   <si>
     <t>27/02/2024 04:12:50</t>
-  </si>
-  <si>
-    <t>19/12/2023 19:16:17</t>
-  </si>
-  <si>
-    <t>76670015</t>
-  </si>
-  <si>
-    <t>01/03/2024 16:10:15</t>
   </si>
   <si>
     <t>20/11/2023 13:35:51</t>
@@ -1188,7 +861,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:F51"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="4" width="20" customWidth="1"/>
@@ -1217,7 +890,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>181731</v>
+        <v>181873</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -1232,12 +905,12 @@
         <v>9</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>181729</v>
+        <v>181861</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -1252,12 +925,12 @@
         <v>12</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>181626</v>
+        <v>181860</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -1272,12 +945,12 @@
         <v>15</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>181621</v>
+        <v>181801</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -1292,12 +965,12 @@
         <v>18</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>181580</v>
+        <v>181712</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -1317,7 +990,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>181524</v>
+        <v>181621</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -1337,7 +1010,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>181493</v>
+        <v>181471</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -1352,12 +1025,12 @@
         <v>27</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>181466</v>
+        <v>181428</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
@@ -1377,7 +1050,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>181428</v>
+        <v>181358</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -1392,12 +1065,12 @@
         <v>33</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>181404</v>
+        <v>181335</v>
       </c>
       <c r="B11" t="s">
         <v>34</v>
@@ -1417,7 +1090,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>181358</v>
+        <v>181281</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
@@ -1437,7 +1110,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>181335</v>
+        <v>181272</v>
       </c>
       <c r="B13" t="s">
         <v>40</v>
@@ -1452,12 +1125,12 @@
         <v>42</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>181314</v>
+        <v>181238</v>
       </c>
       <c r="B14" t="s">
         <v>43</v>
@@ -1477,7 +1150,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>181281</v>
+        <v>181214</v>
       </c>
       <c r="B15" t="s">
         <v>46</v>
@@ -1497,7 +1170,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>181272</v>
+        <v>181212</v>
       </c>
       <c r="B16" t="s">
         <v>49</v>
@@ -1512,12 +1185,12 @@
         <v>51</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>181238</v>
+        <v>181204</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
@@ -1537,7 +1210,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>181214</v>
+        <v>181195</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -1557,7 +1230,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>181212</v>
+        <v>181141</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -1572,12 +1245,12 @@
         <v>60</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>181204</v>
+        <v>181085</v>
       </c>
       <c r="B20" t="s">
         <v>61</v>
@@ -1592,12 +1265,12 @@
         <v>63</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>181195</v>
+        <v>180916</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>
@@ -1617,7 +1290,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>181146</v>
+        <v>180856</v>
       </c>
       <c r="B22" t="s">
         <v>67</v>
@@ -1632,12 +1305,12 @@
         <v>69</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>181108</v>
+        <v>180835</v>
       </c>
       <c r="B23" t="s">
         <v>70</v>
@@ -1657,7 +1330,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>181085</v>
+        <v>180806</v>
       </c>
       <c r="B24" t="s">
         <v>73</v>
@@ -1672,12 +1345,12 @@
         <v>75</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>181024</v>
+        <v>180795</v>
       </c>
       <c r="B25" t="s">
         <v>76</v>
@@ -1697,7 +1370,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>180981</v>
+        <v>180619</v>
       </c>
       <c r="B26" t="s">
         <v>79</v>
@@ -1717,7 +1390,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>180916</v>
+        <v>180585</v>
       </c>
       <c r="B27" t="s">
         <v>82</v>
@@ -1737,7 +1410,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>180873</v>
+        <v>180411</v>
       </c>
       <c r="B28" t="s">
         <v>85</v>
@@ -1752,12 +1425,12 @@
         <v>87</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>180856</v>
+        <v>180060</v>
       </c>
       <c r="B29" t="s">
         <v>88</v>
@@ -1777,7 +1450,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>180835</v>
+        <v>179961</v>
       </c>
       <c r="B30" t="s">
         <v>91</v>
@@ -1797,7 +1470,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>180806</v>
+        <v>179866</v>
       </c>
       <c r="B31" t="s">
         <v>94</v>
@@ -1817,7 +1490,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>180795</v>
+        <v>179737</v>
       </c>
       <c r="B32" t="s">
         <v>97</v>
@@ -1832,12 +1505,12 @@
         <v>99</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>180784</v>
+        <v>179538</v>
       </c>
       <c r="B33" t="s">
         <v>100</v>
@@ -1857,7 +1530,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>180705</v>
+        <v>179472</v>
       </c>
       <c r="B34" t="s">
         <v>103</v>
@@ -1877,7 +1550,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>180619</v>
+        <v>179404</v>
       </c>
       <c r="B35" t="s">
         <v>106</v>
@@ -1897,7 +1570,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>180585</v>
+        <v>179094</v>
       </c>
       <c r="B36" t="s">
         <v>109</v>
@@ -1917,7 +1590,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>180556</v>
+        <v>179080</v>
       </c>
       <c r="B37" t="s">
         <v>112</v>
@@ -1937,7 +1610,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>180506</v>
+        <v>178818</v>
       </c>
       <c r="B38" t="s">
         <v>115</v>
@@ -1952,12 +1625,12 @@
         <v>117</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>180495</v>
+        <v>178782</v>
       </c>
       <c r="B39" t="s">
         <v>118</v>
@@ -1977,7 +1650,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>180404</v>
+        <v>177875</v>
       </c>
       <c r="B40" t="s">
         <v>121</v>
@@ -1992,12 +1665,12 @@
         <v>123</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>180372</v>
+        <v>177507</v>
       </c>
       <c r="B41" t="s">
         <v>124</v>
@@ -2017,7 +1690,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>180363</v>
+        <v>177386</v>
       </c>
       <c r="B42" t="s">
         <v>127</v>
@@ -2037,7 +1710,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>180343</v>
+        <v>177335</v>
       </c>
       <c r="B43" t="s">
         <v>130</v>
@@ -2057,7 +1730,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>180277</v>
+        <v>177169</v>
       </c>
       <c r="B44" t="s">
         <v>133</v>
@@ -2077,7 +1750,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>180065</v>
+        <v>177001</v>
       </c>
       <c r="B45" t="s">
         <v>136</v>
@@ -2097,7 +1770,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>180060</v>
+        <v>176195</v>
       </c>
       <c r="B46" t="s">
         <v>139</v>
@@ -2117,7 +1790,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>180019</v>
+        <v>171836</v>
       </c>
       <c r="B47" t="s">
         <v>142</v>
@@ -2137,7 +1810,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>179961</v>
+        <v>171128</v>
       </c>
       <c r="B48" t="s">
         <v>145</v>
@@ -2157,7 +1830,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>179954</v>
+        <v>169586</v>
       </c>
       <c r="B49" t="s">
         <v>148</v>
@@ -2177,7 +1850,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>179866</v>
+        <v>165035</v>
       </c>
       <c r="B50" t="s">
         <v>151</v>
@@ -2197,7 +1870,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>179834</v>
+        <v>159627</v>
       </c>
       <c r="B51" t="s">
         <v>154</v>
@@ -2212,726 +1885,6 @@
         <v>157</v>
       </c>
       <c r="F51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>179737</v>
-      </c>
-      <c r="B52" t="s">
-        <v>158</v>
-      </c>
-      <c r="C52" t="s">
-        <v>159</v>
-      </c>
-      <c r="D52" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" t="s">
-        <v>160</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>179704</v>
-      </c>
-      <c r="B53" t="s">
-        <v>161</v>
-      </c>
-      <c r="C53" t="s">
-        <v>162</v>
-      </c>
-      <c r="D53" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" t="s">
-        <v>163</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>179653</v>
-      </c>
-      <c r="B54" t="s">
-        <v>164</v>
-      </c>
-      <c r="C54" t="s">
-        <v>165</v>
-      </c>
-      <c r="D54" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" t="s">
-        <v>166</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>179582</v>
-      </c>
-      <c r="B55" t="s">
-        <v>167</v>
-      </c>
-      <c r="C55" t="s">
-        <v>168</v>
-      </c>
-      <c r="D55" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" t="s">
-        <v>169</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>179538</v>
-      </c>
-      <c r="B56" t="s">
-        <v>170</v>
-      </c>
-      <c r="C56" t="s">
-        <v>171</v>
-      </c>
-      <c r="D56" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" t="s">
-        <v>172</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>179472</v>
-      </c>
-      <c r="B57" t="s">
-        <v>173</v>
-      </c>
-      <c r="C57" t="s">
-        <v>174</v>
-      </c>
-      <c r="D57" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" t="s">
-        <v>175</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>179404</v>
-      </c>
-      <c r="B58" t="s">
-        <v>176</v>
-      </c>
-      <c r="C58" t="s">
-        <v>177</v>
-      </c>
-      <c r="D58" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" t="s">
-        <v>178</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>179094</v>
-      </c>
-      <c r="B59" t="s">
-        <v>179</v>
-      </c>
-      <c r="C59" t="s">
-        <v>180</v>
-      </c>
-      <c r="D59" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" t="s">
-        <v>181</v>
-      </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>179080</v>
-      </c>
-      <c r="B60" t="s">
-        <v>182</v>
-      </c>
-      <c r="C60" t="s">
-        <v>183</v>
-      </c>
-      <c r="D60" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" t="s">
-        <v>184</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>179024</v>
-      </c>
-      <c r="B61" t="s">
-        <v>185</v>
-      </c>
-      <c r="C61" t="s">
-        <v>186</v>
-      </c>
-      <c r="D61" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61" t="s">
-        <v>187</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>178943</v>
-      </c>
-      <c r="B62" t="s">
-        <v>188</v>
-      </c>
-      <c r="C62" t="s">
-        <v>189</v>
-      </c>
-      <c r="D62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" t="s">
-        <v>190</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>178818</v>
-      </c>
-      <c r="B63" t="s">
-        <v>191</v>
-      </c>
-      <c r="C63" t="s">
-        <v>192</v>
-      </c>
-      <c r="D63" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63" t="s">
-        <v>193</v>
-      </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>178795</v>
-      </c>
-      <c r="B64" t="s">
-        <v>194</v>
-      </c>
-      <c r="C64" t="s">
-        <v>195</v>
-      </c>
-      <c r="D64" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" t="s">
-        <v>196</v>
-      </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>178782</v>
-      </c>
-      <c r="B65" t="s">
-        <v>197</v>
-      </c>
-      <c r="C65" t="s">
-        <v>198</v>
-      </c>
-      <c r="D65" t="s">
-        <v>8</v>
-      </c>
-      <c r="E65" t="s">
-        <v>199</v>
-      </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>178269</v>
-      </c>
-      <c r="B66" t="s">
-        <v>200</v>
-      </c>
-      <c r="C66" t="s">
-        <v>201</v>
-      </c>
-      <c r="D66" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" t="s">
-        <v>202</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>177896</v>
-      </c>
-      <c r="B67" t="s">
-        <v>203</v>
-      </c>
-      <c r="C67" t="s">
-        <v>204</v>
-      </c>
-      <c r="D67" t="s">
-        <v>8</v>
-      </c>
-      <c r="E67" t="s">
-        <v>205</v>
-      </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>177875</v>
-      </c>
-      <c r="B68" t="s">
-        <v>206</v>
-      </c>
-      <c r="C68" t="s">
-        <v>207</v>
-      </c>
-      <c r="D68" t="s">
-        <v>8</v>
-      </c>
-      <c r="E68" t="s">
-        <v>208</v>
-      </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>177826</v>
-      </c>
-      <c r="B69" t="s">
-        <v>209</v>
-      </c>
-      <c r="C69" t="s">
-        <v>210</v>
-      </c>
-      <c r="D69" t="s">
-        <v>8</v>
-      </c>
-      <c r="E69" t="s">
-        <v>211</v>
-      </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>177507</v>
-      </c>
-      <c r="B70" t="s">
-        <v>212</v>
-      </c>
-      <c r="C70" t="s">
-        <v>213</v>
-      </c>
-      <c r="D70" t="s">
-        <v>8</v>
-      </c>
-      <c r="E70" t="s">
-        <v>214</v>
-      </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>177386</v>
-      </c>
-      <c r="B71" t="s">
-        <v>215</v>
-      </c>
-      <c r="C71" t="s">
-        <v>216</v>
-      </c>
-      <c r="D71" t="s">
-        <v>8</v>
-      </c>
-      <c r="E71" t="s">
-        <v>217</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>177335</v>
-      </c>
-      <c r="B72" t="s">
-        <v>218</v>
-      </c>
-      <c r="C72" t="s">
-        <v>219</v>
-      </c>
-      <c r="D72" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" t="s">
-        <v>220</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>177169</v>
-      </c>
-      <c r="B73" t="s">
-        <v>221</v>
-      </c>
-      <c r="C73" t="s">
-        <v>222</v>
-      </c>
-      <c r="D73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E73" t="s">
-        <v>223</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>177001</v>
-      </c>
-      <c r="B74" t="s">
-        <v>224</v>
-      </c>
-      <c r="C74" t="s">
-        <v>225</v>
-      </c>
-      <c r="D74" t="s">
-        <v>8</v>
-      </c>
-      <c r="E74" t="s">
-        <v>226</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>176735</v>
-      </c>
-      <c r="B75" t="s">
-        <v>227</v>
-      </c>
-      <c r="C75" t="s">
-        <v>228</v>
-      </c>
-      <c r="D75" t="s">
-        <v>8</v>
-      </c>
-      <c r="E75" t="s">
-        <v>229</v>
-      </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>176195</v>
-      </c>
-      <c r="B76" t="s">
-        <v>230</v>
-      </c>
-      <c r="C76" t="s">
-        <v>231</v>
-      </c>
-      <c r="D76" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" t="s">
-        <v>232</v>
-      </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>175845</v>
-      </c>
-      <c r="B77" t="s">
-        <v>233</v>
-      </c>
-      <c r="C77" t="s">
-        <v>234</v>
-      </c>
-      <c r="D77" t="s">
-        <v>8</v>
-      </c>
-      <c r="E77" t="s">
-        <v>235</v>
-      </c>
-      <c r="F77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>175720</v>
-      </c>
-      <c r="B78" t="s">
-        <v>236</v>
-      </c>
-      <c r="C78" t="s">
-        <v>237</v>
-      </c>
-      <c r="D78" t="s">
-        <v>8</v>
-      </c>
-      <c r="E78" t="s">
-        <v>238</v>
-      </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>175572</v>
-      </c>
-      <c r="B79" t="s">
-        <v>239</v>
-      </c>
-      <c r="C79" t="s">
-        <v>240</v>
-      </c>
-      <c r="D79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E79" t="s">
-        <v>241</v>
-      </c>
-      <c r="F79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>171836</v>
-      </c>
-      <c r="B80" t="s">
-        <v>242</v>
-      </c>
-      <c r="C80" t="s">
-        <v>243</v>
-      </c>
-      <c r="D80" t="s">
-        <v>8</v>
-      </c>
-      <c r="E80" t="s">
-        <v>244</v>
-      </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>171580</v>
-      </c>
-      <c r="B81" t="s">
-        <v>245</v>
-      </c>
-      <c r="C81" t="s">
-        <v>246</v>
-      </c>
-      <c r="D81" t="s">
-        <v>8</v>
-      </c>
-      <c r="E81" t="s">
-        <v>247</v>
-      </c>
-      <c r="F81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>171128</v>
-      </c>
-      <c r="B82" t="s">
-        <v>248</v>
-      </c>
-      <c r="C82" t="s">
-        <v>249</v>
-      </c>
-      <c r="D82" t="s">
-        <v>8</v>
-      </c>
-      <c r="E82" t="s">
-        <v>250</v>
-      </c>
-      <c r="F82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>170883</v>
-      </c>
-      <c r="B83" t="s">
-        <v>251</v>
-      </c>
-      <c r="C83" t="s">
-        <v>252</v>
-      </c>
-      <c r="D83" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" t="s">
-        <v>253</v>
-      </c>
-      <c r="F83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>169586</v>
-      </c>
-      <c r="B84" t="s">
-        <v>254</v>
-      </c>
-      <c r="C84" t="s">
-        <v>255</v>
-      </c>
-      <c r="D84" t="s">
-        <v>8</v>
-      </c>
-      <c r="E84" t="s">
-        <v>256</v>
-      </c>
-      <c r="F84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>169387</v>
-      </c>
-      <c r="B85" t="s">
-        <v>257</v>
-      </c>
-      <c r="C85" t="s">
-        <v>258</v>
-      </c>
-      <c r="D85" t="s">
-        <v>8</v>
-      </c>
-      <c r="E85" t="s">
-        <v>259</v>
-      </c>
-      <c r="F85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>165035</v>
-      </c>
-      <c r="B86" t="s">
-        <v>260</v>
-      </c>
-      <c r="C86" t="s">
-        <v>261</v>
-      </c>
-      <c r="D86" t="s">
-        <v>8</v>
-      </c>
-      <c r="E86" t="s">
-        <v>262</v>
-      </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>159627</v>
-      </c>
-      <c r="B87" t="s">
-        <v>263</v>
-      </c>
-      <c r="C87" t="s">
-        <v>264</v>
-      </c>
-      <c r="D87" t="s">
-        <v>265</v>
-      </c>
-      <c r="E87" t="s">
-        <v>266</v>
-      </c>
-      <c r="F87">
         <v>1</v>
       </c>
     </row>
